--- a/biology/Botanique/Tropaeolaceae/Tropaeolaceae.xlsx
+++ b/biology/Botanique/Tropaeolaceae/Tropaeolaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille des Tropaeolaceae (Tropaéolacées ou Tropéolacées) regroupe des plantes dicotylédones. Elle comprend moins de cent espèces réparties en deux ou trois genres.
 Ce sont des plantes herbacées annuelles ou pérennes. En France, la plante la plus connue, appartenant à cette famille, est la grande capucine.
@@ -512,9 +524,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre type Tropaeolum, dérivé du grec τροπαίων / tropaion, trophée, en références aux feuilles, représentant un bouclier et aux fleurs, un casque[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre type Tropaeolum, dérivé du grec τροπαίων / tropaion, trophée, en références aux feuilles, représentant un bouclier et aux fleurs, un casque.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La classification phylogénétique place maintenant cette famille dans l'ordre des Brassicales lui-même placé dans le groupe des Malvidées (anglais eurosids II). Le Angiosperm Phylogeny Website [30 avril 2007] n'accepte plus qu'un seul genre (Tropaeolum).
 </t>
@@ -574,20 +590,22 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon Angiosperm Phylogeny Website                        (4 août 2015)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Angiosperm Phylogeny Website                        (4 août 2015) :
 genre Tropaeolum
 genre Trophaeastrum (optionnel)
-Selon NCBI  (4 août 2015)[3] :
+Selon NCBI  (4 août 2015) :
 genre Magallana
 genre Tropaeolum
 genre Trophaeastrum
-Selon DELTA Angio           (4 août 2015)[4] :
+Selon DELTA Angio           (4 août 2015) :
 genre Magallana
 genre Tropaeastrum (certainement Trophaeastrum)
 genre Tropaeolum
-Selon ITIS      (4 août 2015)[5] :
+Selon ITIS      (4 août 2015) :
 genre Tropaeolum L.</t>
         </is>
       </c>
@@ -616,9 +634,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon NCBI  (21 juin 2010)[6] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon NCBI  (21 juin 2010) :
 genre Magallana
 Magallana porifolia - syn. Tropaeolum porifolium (Cav.) L.Andersson &amp; S.Andersson
 genre Tropaeolum
